--- a/test/ticket-serial-numbers-updated-dbb.xlsx
+++ b/test/ticket-serial-numbers-updated-dbb.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileSharing readOnlyRecommended="1" userName="Microsoft Office User" reservationPassword="B542"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fcontreras/LNZWORK/TC/BDD_Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fcontreras/GITREPO/skunkworks.mobile-utility-mock/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16600" tabRatio="171"/>
+    <workbookView xWindow="18920" yWindow="2380" windowWidth="28800" windowHeight="16600" tabRatio="171"/>
   </bookViews>
   <sheets>
     <sheet name="UI Message" sheetId="1" r:id="rId1"/>
@@ -4298,8 +4299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E58" sqref="A2:K93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7538,6 +7539,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="B542" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" sort="0" autoFilter="0"/>
   <autoFilter ref="A2:J93"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
